--- a/inst/extdata/partes_viajeros.xlsx
+++ b/inst/extdata/partes_viajeros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_seg\_trabajo\packages\hospedaje\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_seg\_trabajo\packages\comunicaXML\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A95E87-EBDB-4DA3-B11B-8915B85835A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60803BFB-15DB-4B3B-B482-0F9B5CF26808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunicacion" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>tipo</t>
   </si>
@@ -144,9 +144,6 @@
     <t>nº 3</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
     <t>2025-02-20</t>
   </si>
   <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -349,6 +340,12 @@
   </si>
   <si>
     <t>Nombre Apellido1 Apellido2</t>
+  </si>
+  <si>
+    <t>2025-02-21T00:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-23T00:00:00</t>
   </si>
 </sst>
 </file>
@@ -569,80 +566,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:B2" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{AE478F31-2791-4CE4-8716-AA9E0DBD691E}" name="comunicacion_pk" dataDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{8B36EB9F-9389-47CB-9D2B-5D9435B9A2BA}" name="comentario" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{AE478F31-2791-4CE4-8716-AA9E0DBD691E}" name="comunicacion_pk" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{8B36EB9F-9389-47CB-9D2B-5D9435B9A2BA}" name="comentario" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}" name="Tabla3" displayName="Tabla3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}" name="Tabla3" displayName="Tabla3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:J2" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FE440E4B-71F2-4D1A-846F-02E9B9158253}" name="tipo" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{C61ACF59-4FC8-4790-AE1A-A4903DA4BA24}" name="nombre" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{4C8BAC39-FC48-4433-9719-F9853E21D6B3}" name="direccion" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{C12D7E9C-0ED4-4358-A077-D41381BBB243}" name="direccionComplementaria" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{3D501D60-625E-4876-8383-721BC7052A61}" name="codigoMunicipio" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{BF4599C2-6484-4855-A327-1B6DF713948D}" name="nombreMunicipio" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{3F7F998A-D302-4127-9586-3AAA1E215ED3}" name="codigoPostal" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{4E7DAB2F-6323-4EA6-813A-58EB8029F321}" name="pais" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{6AEAC8BF-0D46-4F9C-9ACC-780A86DBAFF9}" name="codigo" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{79EA0FC5-1BB9-4EF1-ADFA-FF26CB4E4AB3}" name="comunicacion_fk" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{FE440E4B-71F2-4D1A-846F-02E9B9158253}" name="tipo" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C61ACF59-4FC8-4790-AE1A-A4903DA4BA24}" name="nombre" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{4C8BAC39-FC48-4433-9719-F9853E21D6B3}" name="direccion" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{C12D7E9C-0ED4-4358-A077-D41381BBB243}" name="direccionComplementaria" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{3D501D60-625E-4876-8383-721BC7052A61}" name="codigoMunicipio" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{BF4599C2-6484-4855-A327-1B6DF713948D}" name="nombreMunicipio" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{3F7F998A-D302-4127-9586-3AAA1E215ED3}" name="codigoPostal" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{4E7DAB2F-6323-4EA6-813A-58EB8029F321}" name="pais" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{6AEAC8BF-0D46-4F9C-9ACC-780A86DBAFF9}" name="codigo" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{79EA0FC5-1BB9-4EF1-ADFA-FF26CB4E4AB3}" name="comunicacion_fk" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}" name="Tabla4" displayName="Tabla4" ref="A1:M3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}" name="Tabla4" displayName="Tabla4" ref="A1:M3" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:M3" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E1E634CB-2E43-45A7-9886-100721C90CE1}" name="referencia" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{453A8977-EDE8-4AF8-9A26-A0A663656A18}" name="fechaContrato" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{DEED2476-E1B7-40C3-98E0-7BC9FC6E65A7}" name="fechaEntrada" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{5C85F94C-DDBE-43F6-8E92-66A85D14DFA6}" name="fechaSalida" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{22ACB2D7-17ED-42E1-953F-179CA559E341}" name="numPersonas" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{04F64BFF-FD65-4DED-9390-E03EE2ABD092}" name="numHabitaciones" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{33860576-AA85-4C95-9F1A-60A74A167B90}" name="internet" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{DF81D428-9A1E-45BA-A8F3-876D821510BA}" name="tipoPago" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{AEE4C863-88E9-4528-90DD-335F7295A8DD}" name="fechaPago" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{3CCBA038-EC3E-4D0A-A346-E8FAE50848B3}" name="medioPago" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{5AAC5A58-3912-44BF-AAE5-2B495A13CE60}" name="titular" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{D31308E4-5918-4368-93FF-2AC241B68895}" name="caducidadTarjeta" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{32BE8290-44FD-4FA4-ADE4-2A718CA843ED}" name="comunicacion_fk" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{E1E634CB-2E43-45A7-9886-100721C90CE1}" name="referencia" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{453A8977-EDE8-4AF8-9A26-A0A663656A18}" name="fechaContrato" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DEED2476-E1B7-40C3-98E0-7BC9FC6E65A7}" name="fechaEntrada" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{5C85F94C-DDBE-43F6-8E92-66A85D14DFA6}" name="fechaSalida" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{22ACB2D7-17ED-42E1-953F-179CA559E341}" name="numPersonas" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{04F64BFF-FD65-4DED-9390-E03EE2ABD092}" name="numHabitaciones" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{33860576-AA85-4C95-9F1A-60A74A167B90}" name="internet" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{DF81D428-9A1E-45BA-A8F3-876D821510BA}" name="tipoPago" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{AEE4C863-88E9-4528-90DD-335F7295A8DD}" name="fechaPago" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{3CCBA038-EC3E-4D0A-A346-E8FAE50848B3}" name="medioPago" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{5AAC5A58-3912-44BF-AAE5-2B495A13CE60}" name="titular" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{D31308E4-5918-4368-93FF-2AC241B68895}" name="caducidadTarjeta" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{32BE8290-44FD-4FA4-ADE4-2A718CA843ED}" name="comunicacion_fk" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}" name="Tabla2" displayName="Tabla2" ref="A1:S24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}" name="Tabla2" displayName="Tabla2" ref="A1:S24" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S24" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{07F79DBC-F9EB-42B4-909B-93C45C199DB4}" name="rol" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E1675CC3-B736-4B1E-B074-33716E11F33B}" name="nombre" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{93E479C5-9FC6-48F7-BB69-EF3E27F69115}" name="apellido1" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{21E9F73F-71D1-4465-95B3-301D9B5B7B72}" name="apellido2" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00569BF5-9ECF-4C5A-B1BA-E88EA8EED9F0}" name="tipoDocumento" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{452B5427-D5D0-4EF3-8056-5035EF44E871}" name="numeroDocumento" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{B7CB14CA-8DA5-4879-8BB2-7E3F8106829B}" name="fechaNacimiento" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{83E62EEF-14BD-4039-9515-0781EB169D28}" name="nacionalidad" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{C47003A3-167C-42C1-910B-95470A7D54A5}" name="sexo" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{C34ACC65-B169-4C86-BDFD-C1F1B1CBA9A9}" name="direccion" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{DD318AEA-2DAF-468E-992D-2DECD2245856}" name="direccionComplementaria" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{1FDF9FE8-65E6-4AFD-B826-DC0CB35A273A}" name="codigoMunicipio" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{DA76B984-C780-4EF7-A5FA-7996797178A3}" name="nombreMunicipio" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{52271BC7-D0E3-4A1E-8739-9BC6018D4823}" name="codigoPostal" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{3937C46B-318E-4491-86FE-D4BC51BF4D55}" name="pais" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{9AC8D9A4-2918-4A0C-9C62-FB143C4CCE37}" name="telefono" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{6F12A265-F96C-40A4-BA90-A2605907F2B7}" name="telefono2" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{86979B80-10C5-4CCD-815A-9CC4BC5781FF}" name="correo" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{6529B68F-9E5F-457D-831B-6B9BBF64891E}" name="comunicacion_fk" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{07F79DBC-F9EB-42B4-909B-93C45C199DB4}" name="rol" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{E1675CC3-B736-4B1E-B074-33716E11F33B}" name="nombre" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{93E479C5-9FC6-48F7-BB69-EF3E27F69115}" name="apellido1" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{21E9F73F-71D1-4465-95B3-301D9B5B7B72}" name="apellido2" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00569BF5-9ECF-4C5A-B1BA-E88EA8EED9F0}" name="tipoDocumento" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{452B5427-D5D0-4EF3-8056-5035EF44E871}" name="numeroDocumento" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B7CB14CA-8DA5-4879-8BB2-7E3F8106829B}" name="fechaNacimiento" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{83E62EEF-14BD-4039-9515-0781EB169D28}" name="nacionalidad" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{C47003A3-167C-42C1-910B-95470A7D54A5}" name="sexo" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{C34ACC65-B169-4C86-BDFD-C1F1B1CBA9A9}" name="direccion" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{DD318AEA-2DAF-468E-992D-2DECD2245856}" name="direccionComplementaria" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{1FDF9FE8-65E6-4AFD-B826-DC0CB35A273A}" name="codigoMunicipio" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{DA76B984-C780-4EF7-A5FA-7996797178A3}" name="nombreMunicipio" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{52271BC7-D0E3-4A1E-8739-9BC6018D4823}" name="codigoPostal" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{3937C46B-318E-4491-86FE-D4BC51BF4D55}" name="pais" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{9AC8D9A4-2918-4A0C-9C62-FB143C4CCE37}" name="telefono" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{6F12A265-F96C-40A4-BA90-A2605907F2B7}" name="telefono2" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{86979B80-10C5-4CCD-815A-9CC4BC5781FF}" name="correo" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{6529B68F-9E5F-457D-831B-6B9BBF64891E}" name="comunicacion_fk" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -953,7 +950,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,16 +1013,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="1">
-        <v>18001</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1043,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D360DDC-B844-4C8E-A812-8EBA6B4A71D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,21 +1095,21 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -1124,22 +1118,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1157,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF690F-6C63-4D55-8579-ED1DF37A8C7A}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1234,63 +1228,63 @@
         <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S2" s="1">
         <v>1</v>
@@ -1298,55 +1292,55 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -1354,58 +1348,58 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -1413,55 +1407,55 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>

--- a/inst/extdata/partes_viajeros.xlsx
+++ b/inst/extdata/partes_viajeros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_seg\_trabajo\packages\comunicaXML\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60803BFB-15DB-4B3B-B482-0F9B5CF26808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E0346-25D6-45E4-8103-3651BC1FBDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunicacion" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>tipo</t>
   </si>
@@ -243,15 +243,9 @@
     <t>Complemento 1</t>
   </si>
   <si>
-    <t>Complemento 2</t>
-  </si>
-  <si>
     <t>Complemento 3</t>
   </si>
   <si>
-    <t>Complemento 4</t>
-  </si>
-  <si>
     <t>Granada 1</t>
   </si>
   <si>
@@ -303,15 +297,9 @@
     <t>21111111</t>
   </si>
   <si>
-    <t>12222222</t>
-  </si>
-  <si>
     <t>23333333</t>
   </si>
   <si>
-    <t>24444444</t>
-  </si>
-  <si>
     <t>11111</t>
   </si>
   <si>
@@ -327,18 +315,6 @@
     <t>1980-01-01</t>
   </si>
   <si>
-    <t>11111111D</t>
-  </si>
-  <si>
-    <t>22222222E</t>
-  </si>
-  <si>
-    <t>33333333F</t>
-  </si>
-  <si>
-    <t>44444444G</t>
-  </si>
-  <si>
     <t>Nombre Apellido1 Apellido2</t>
   </si>
   <si>
@@ -346,6 +322,33 @@
   </si>
   <si>
     <t>2025-02-23T00:00:00</t>
+  </si>
+  <si>
+    <t>soporteDocumento</t>
+  </si>
+  <si>
+    <t>ABC123456</t>
+  </si>
+  <si>
+    <t>ABC123457</t>
+  </si>
+  <si>
+    <t>ABC123458</t>
+  </si>
+  <si>
+    <t>ABC123459</t>
+  </si>
+  <si>
+    <t>11111111H</t>
+  </si>
+  <si>
+    <t>22222222J</t>
+  </si>
+  <si>
+    <t>33333333P</t>
+  </si>
+  <si>
+    <t>44444444A</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="53">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -566,67 +572,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:B2" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{AE478F31-2791-4CE4-8716-AA9E0DBD691E}" name="comunicacion_pk" dataDxfId="49"/>
-    <tableColumn id="1" xr3:uid="{8B36EB9F-9389-47CB-9D2B-5D9435B9A2BA}" name="comentario" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{AE478F31-2791-4CE4-8716-AA9E0DBD691E}" name="comunicacion_pk" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{8B36EB9F-9389-47CB-9D2B-5D9435B9A2BA}" name="comentario" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}" name="Tabla3" displayName="Tabla3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}" name="Tabla3" displayName="Tabla3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:J2" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FE440E4B-71F2-4D1A-846F-02E9B9158253}" name="tipo" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{C61ACF59-4FC8-4790-AE1A-A4903DA4BA24}" name="nombre" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{4C8BAC39-FC48-4433-9719-F9853E21D6B3}" name="direccion" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{C12D7E9C-0ED4-4358-A077-D41381BBB243}" name="direccionComplementaria" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{3D501D60-625E-4876-8383-721BC7052A61}" name="codigoMunicipio" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{BF4599C2-6484-4855-A327-1B6DF713948D}" name="nombreMunicipio" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{3F7F998A-D302-4127-9586-3AAA1E215ED3}" name="codigoPostal" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{4E7DAB2F-6323-4EA6-813A-58EB8029F321}" name="pais" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{6AEAC8BF-0D46-4F9C-9ACC-780A86DBAFF9}" name="codigo" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{79EA0FC5-1BB9-4EF1-ADFA-FF26CB4E4AB3}" name="comunicacion_fk" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{FE440E4B-71F2-4D1A-846F-02E9B9158253}" name="tipo" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{C61ACF59-4FC8-4790-AE1A-A4903DA4BA24}" name="nombre" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{4C8BAC39-FC48-4433-9719-F9853E21D6B3}" name="direccion" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{C12D7E9C-0ED4-4358-A077-D41381BBB243}" name="direccionComplementaria" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{3D501D60-625E-4876-8383-721BC7052A61}" name="codigoMunicipio" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{BF4599C2-6484-4855-A327-1B6DF713948D}" name="nombreMunicipio" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{3F7F998A-D302-4127-9586-3AAA1E215ED3}" name="codigoPostal" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{4E7DAB2F-6323-4EA6-813A-58EB8029F321}" name="pais" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{6AEAC8BF-0D46-4F9C-9ACC-780A86DBAFF9}" name="codigo" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{79EA0FC5-1BB9-4EF1-ADFA-FF26CB4E4AB3}" name="comunicacion_fk" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}" name="Tabla4" displayName="Tabla4" ref="A1:M3" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}" name="Tabla4" displayName="Tabla4" ref="A1:M3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:M3" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E1E634CB-2E43-45A7-9886-100721C90CE1}" name="referencia" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{453A8977-EDE8-4AF8-9A26-A0A663656A18}" name="fechaContrato" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{DEED2476-E1B7-40C3-98E0-7BC9FC6E65A7}" name="fechaEntrada" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{5C85F94C-DDBE-43F6-8E92-66A85D14DFA6}" name="fechaSalida" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{22ACB2D7-17ED-42E1-953F-179CA559E341}" name="numPersonas" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{04F64BFF-FD65-4DED-9390-E03EE2ABD092}" name="numHabitaciones" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{33860576-AA85-4C95-9F1A-60A74A167B90}" name="internet" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{DF81D428-9A1E-45BA-A8F3-876D821510BA}" name="tipoPago" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{AEE4C863-88E9-4528-90DD-335F7295A8DD}" name="fechaPago" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{3CCBA038-EC3E-4D0A-A346-E8FAE50848B3}" name="medioPago" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{5AAC5A58-3912-44BF-AAE5-2B495A13CE60}" name="titular" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{D31308E4-5918-4368-93FF-2AC241B68895}" name="caducidadTarjeta" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{32BE8290-44FD-4FA4-ADE4-2A718CA843ED}" name="comunicacion_fk" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{E1E634CB-2E43-45A7-9886-100721C90CE1}" name="referencia" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{453A8977-EDE8-4AF8-9A26-A0A663656A18}" name="fechaContrato" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{DEED2476-E1B7-40C3-98E0-7BC9FC6E65A7}" name="fechaEntrada" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{5C85F94C-DDBE-43F6-8E92-66A85D14DFA6}" name="fechaSalida" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{22ACB2D7-17ED-42E1-953F-179CA559E341}" name="numPersonas" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{04F64BFF-FD65-4DED-9390-E03EE2ABD092}" name="numHabitaciones" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{33860576-AA85-4C95-9F1A-60A74A167B90}" name="internet" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{DF81D428-9A1E-45BA-A8F3-876D821510BA}" name="tipoPago" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{AEE4C863-88E9-4528-90DD-335F7295A8DD}" name="fechaPago" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{3CCBA038-EC3E-4D0A-A346-E8FAE50848B3}" name="medioPago" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{5AAC5A58-3912-44BF-AAE5-2B495A13CE60}" name="titular" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{D31308E4-5918-4368-93FF-2AC241B68895}" name="caducidadTarjeta" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{32BE8290-44FD-4FA4-ADE4-2A718CA843ED}" name="comunicacion_fk" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}" name="Tabla2" displayName="Tabla2" ref="A1:S24" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S24" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{07F79DBC-F9EB-42B4-909B-93C45C199DB4}" name="rol" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{E1675CC3-B736-4B1E-B074-33716E11F33B}" name="nombre" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{93E479C5-9FC6-48F7-BB69-EF3E27F69115}" name="apellido1" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{21E9F73F-71D1-4465-95B3-301D9B5B7B72}" name="apellido2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00569BF5-9ECF-4C5A-B1BA-E88EA8EED9F0}" name="tipoDocumento" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{452B5427-D5D0-4EF3-8056-5035EF44E871}" name="numeroDocumento" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}" name="Tabla2" displayName="Tabla2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T24" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{07F79DBC-F9EB-42B4-909B-93C45C199DB4}" name="rol" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E1675CC3-B736-4B1E-B074-33716E11F33B}" name="nombre" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{93E479C5-9FC6-48F7-BB69-EF3E27F69115}" name="apellido1" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{21E9F73F-71D1-4465-95B3-301D9B5B7B72}" name="apellido2" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00569BF5-9ECF-4C5A-B1BA-E88EA8EED9F0}" name="tipoDocumento" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{452B5427-D5D0-4EF3-8056-5035EF44E871}" name="numeroDocumento" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{E3500D91-4BFD-4016-B73D-2B7722D670FA}" name="soporteDocumento" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{B7CB14CA-8DA5-4879-8BB2-7E3F8106829B}" name="fechaNacimiento" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{83E62EEF-14BD-4039-9515-0781EB169D28}" name="nacionalidad" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{C47003A3-167C-42C1-910B-95470A7D54A5}" name="sexo" dataDxfId="10"/>
@@ -923,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -996,7 +1003,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,10 +1020,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>38</v>
@@ -1037,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D360DDC-B844-4C8E-A812-8EBA6B4A71D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1095,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1106,10 +1113,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -1130,7 +1137,7 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>44</v>
@@ -1149,30 +1156,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF690F-6C63-4D55-8579-ED1DF37A8C7A}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="26.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="7" width="20.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="26.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1192,46 +1199,49 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>84</v>
+      <c r="T1" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1248,49 +1258,52 @@
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="1">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1307,46 +1320,44 @@
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="1">
+        <v>85</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1363,49 +1374,52 @@
         <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="1">
+        <v>89</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1422,42 +1436,37 @@
         <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" s="1">
+        <v>87</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/inst/extdata/partes_viajeros.xlsx
+++ b/inst/extdata/partes_viajeros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_seg\_trabajo\packages\comunicaXML\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E0346-25D6-45E4-8103-3651BC1FBDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48054A77-E257-4C0F-B1D4-4D6B9327598C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>tipo</t>
   </si>
@@ -282,24 +282,6 @@
     <t>comunicacion_pk</t>
   </si>
   <si>
-    <t>11111111</t>
-  </si>
-  <si>
-    <t>22222222</t>
-  </si>
-  <si>
-    <t>33333333</t>
-  </si>
-  <si>
-    <t>44444444</t>
-  </si>
-  <si>
-    <t>21111111</t>
-  </si>
-  <si>
-    <t>23333333</t>
-  </si>
-  <si>
     <t>11111</t>
   </si>
   <si>
@@ -349,6 +331,27 @@
   </si>
   <si>
     <t>44444444A</t>
+  </si>
+  <si>
+    <t>parentesco</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>222222222</t>
+  </si>
+  <si>
+    <t>333333333</t>
+  </si>
+  <si>
+    <t>444444444</t>
+  </si>
+  <si>
+    <t>211111111</t>
+  </si>
+  <si>
+    <t>233333333</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -572,80 +578,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}" name="Tabla1" displayName="Tabla1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:B2" xr:uid="{90558286-025F-430C-929F-76B20BEAEB32}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{AE478F31-2791-4CE4-8716-AA9E0DBD691E}" name="comunicacion_pk" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{8B36EB9F-9389-47CB-9D2B-5D9435B9A2BA}" name="comentario" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{AE478F31-2791-4CE4-8716-AA9E0DBD691E}" name="comunicacion_pk" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{8B36EB9F-9389-47CB-9D2B-5D9435B9A2BA}" name="comentario" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}" name="Tabla3" displayName="Tabla3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}" name="Tabla3" displayName="Tabla3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:J2" xr:uid="{263FBC5F-B3AB-40E5-8350-1EB811187247}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FE440E4B-71F2-4D1A-846F-02E9B9158253}" name="tipo" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{C61ACF59-4FC8-4790-AE1A-A4903DA4BA24}" name="nombre" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{4C8BAC39-FC48-4433-9719-F9853E21D6B3}" name="direccion" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{C12D7E9C-0ED4-4358-A077-D41381BBB243}" name="direccionComplementaria" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{3D501D60-625E-4876-8383-721BC7052A61}" name="codigoMunicipio" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{BF4599C2-6484-4855-A327-1B6DF713948D}" name="nombreMunicipio" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{3F7F998A-D302-4127-9586-3AAA1E215ED3}" name="codigoPostal" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{4E7DAB2F-6323-4EA6-813A-58EB8029F321}" name="pais" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{6AEAC8BF-0D46-4F9C-9ACC-780A86DBAFF9}" name="codigo" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{79EA0FC5-1BB9-4EF1-ADFA-FF26CB4E4AB3}" name="comunicacion_fk" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{FE440E4B-71F2-4D1A-846F-02E9B9158253}" name="tipo" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{C61ACF59-4FC8-4790-AE1A-A4903DA4BA24}" name="nombre" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{4C8BAC39-FC48-4433-9719-F9853E21D6B3}" name="direccion" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{C12D7E9C-0ED4-4358-A077-D41381BBB243}" name="direccionComplementaria" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{3D501D60-625E-4876-8383-721BC7052A61}" name="codigoMunicipio" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{BF4599C2-6484-4855-A327-1B6DF713948D}" name="nombreMunicipio" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{3F7F998A-D302-4127-9586-3AAA1E215ED3}" name="codigoPostal" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{4E7DAB2F-6323-4EA6-813A-58EB8029F321}" name="pais" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{6AEAC8BF-0D46-4F9C-9ACC-780A86DBAFF9}" name="codigo" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{79EA0FC5-1BB9-4EF1-ADFA-FF26CB4E4AB3}" name="comunicacion_fk" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}" name="Tabla4" displayName="Tabla4" ref="A1:M3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}" name="Tabla4" displayName="Tabla4" ref="A1:M3" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:M3" xr:uid="{6A0B1660-B013-47A2-AAFA-4E6794FFCC24}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E1E634CB-2E43-45A7-9886-100721C90CE1}" name="referencia" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{453A8977-EDE8-4AF8-9A26-A0A663656A18}" name="fechaContrato" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DEED2476-E1B7-40C3-98E0-7BC9FC6E65A7}" name="fechaEntrada" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{5C85F94C-DDBE-43F6-8E92-66A85D14DFA6}" name="fechaSalida" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{22ACB2D7-17ED-42E1-953F-179CA559E341}" name="numPersonas" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{04F64BFF-FD65-4DED-9390-E03EE2ABD092}" name="numHabitaciones" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{33860576-AA85-4C95-9F1A-60A74A167B90}" name="internet" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{DF81D428-9A1E-45BA-A8F3-876D821510BA}" name="tipoPago" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{AEE4C863-88E9-4528-90DD-335F7295A8DD}" name="fechaPago" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{3CCBA038-EC3E-4D0A-A346-E8FAE50848B3}" name="medioPago" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{5AAC5A58-3912-44BF-AAE5-2B495A13CE60}" name="titular" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{D31308E4-5918-4368-93FF-2AC241B68895}" name="caducidadTarjeta" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{32BE8290-44FD-4FA4-ADE4-2A718CA843ED}" name="comunicacion_fk" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{E1E634CB-2E43-45A7-9886-100721C90CE1}" name="referencia" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{453A8977-EDE8-4AF8-9A26-A0A663656A18}" name="fechaContrato" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{DEED2476-E1B7-40C3-98E0-7BC9FC6E65A7}" name="fechaEntrada" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{5C85F94C-DDBE-43F6-8E92-66A85D14DFA6}" name="fechaSalida" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{22ACB2D7-17ED-42E1-953F-179CA559E341}" name="numPersonas" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{04F64BFF-FD65-4DED-9390-E03EE2ABD092}" name="numHabitaciones" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{33860576-AA85-4C95-9F1A-60A74A167B90}" name="internet" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{DF81D428-9A1E-45BA-A8F3-876D821510BA}" name="tipoPago" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{AEE4C863-88E9-4528-90DD-335F7295A8DD}" name="fechaPago" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{3CCBA038-EC3E-4D0A-A346-E8FAE50848B3}" name="medioPago" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{5AAC5A58-3912-44BF-AAE5-2B495A13CE60}" name="titular" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{D31308E4-5918-4368-93FF-2AC241B68895}" name="caducidadTarjeta" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{32BE8290-44FD-4FA4-ADE4-2A718CA843ED}" name="comunicacion_fk" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}" name="Tabla2" displayName="Tabla2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T24" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{07F79DBC-F9EB-42B4-909B-93C45C199DB4}" name="rol" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E1675CC3-B736-4B1E-B074-33716E11F33B}" name="nombre" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{93E479C5-9FC6-48F7-BB69-EF3E27F69115}" name="apellido1" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{21E9F73F-71D1-4465-95B3-301D9B5B7B72}" name="apellido2" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00569BF5-9ECF-4C5A-B1BA-E88EA8EED9F0}" name="tipoDocumento" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{452B5427-D5D0-4EF3-8056-5035EF44E871}" name="numeroDocumento" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{E3500D91-4BFD-4016-B73D-2B7722D670FA}" name="soporteDocumento" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B7CB14CA-8DA5-4879-8BB2-7E3F8106829B}" name="fechaNacimiento" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{83E62EEF-14BD-4039-9515-0781EB169D28}" name="nacionalidad" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{C47003A3-167C-42C1-910B-95470A7D54A5}" name="sexo" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{C34ACC65-B169-4C86-BDFD-C1F1B1CBA9A9}" name="direccion" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{DD318AEA-2DAF-468E-992D-2DECD2245856}" name="direccionComplementaria" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{1FDF9FE8-65E6-4AFD-B826-DC0CB35A273A}" name="codigoMunicipio" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{DA76B984-C780-4EF7-A5FA-7996797178A3}" name="nombreMunicipio" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52271BC7-D0E3-4A1E-8739-9BC6018D4823}" name="codigoPostal" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{3937C46B-318E-4491-86FE-D4BC51BF4D55}" name="pais" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{9AC8D9A4-2918-4A0C-9C62-FB143C4CCE37}" name="telefono" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{6F12A265-F96C-40A4-BA90-A2605907F2B7}" name="telefono2" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{86979B80-10C5-4CCD-815A-9CC4BC5781FF}" name="correo" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}" name="Tabla2" displayName="Tabla2" ref="A1:U24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:U24" xr:uid="{C739F90C-F260-48EE-AFE5-2B39EB80A512}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{07F79DBC-F9EB-42B4-909B-93C45C199DB4}" name="rol" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E1675CC3-B736-4B1E-B074-33716E11F33B}" name="nombre" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{93E479C5-9FC6-48F7-BB69-EF3E27F69115}" name="apellido1" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{21E9F73F-71D1-4465-95B3-301D9B5B7B72}" name="apellido2" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00569BF5-9ECF-4C5A-B1BA-E88EA8EED9F0}" name="tipoDocumento" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{452B5427-D5D0-4EF3-8056-5035EF44E871}" name="numeroDocumento" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{E3500D91-4BFD-4016-B73D-2B7722D670FA}" name="soporteDocumento" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{B7CB14CA-8DA5-4879-8BB2-7E3F8106829B}" name="fechaNacimiento" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{83E62EEF-14BD-4039-9515-0781EB169D28}" name="nacionalidad" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{C47003A3-167C-42C1-910B-95470A7D54A5}" name="sexo" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{C34ACC65-B169-4C86-BDFD-C1F1B1CBA9A9}" name="direccion" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{DD318AEA-2DAF-468E-992D-2DECD2245856}" name="direccionComplementaria" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{1FDF9FE8-65E6-4AFD-B826-DC0CB35A273A}" name="codigoMunicipio" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{DA76B984-C780-4EF7-A5FA-7996797178A3}" name="nombreMunicipio" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{52271BC7-D0E3-4A1E-8739-9BC6018D4823}" name="codigoPostal" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{3937C46B-318E-4491-86FE-D4BC51BF4D55}" name="pais" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{9AC8D9A4-2918-4A0C-9C62-FB143C4CCE37}" name="telefono" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{6F12A265-F96C-40A4-BA90-A2605907F2B7}" name="telefono2" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{86979B80-10C5-4CCD-815A-9CC4BC5781FF}" name="correo" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{EBA5488C-8E59-4757-A08B-F8AEB2F3BDC5}" name="parentesco" dataDxfId="1"/>
     <tableColumn id="19" xr3:uid="{6529B68F-9E5F-457D-831B-6B9BBF64891E}" name="comunicacion_fk" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1113,10 +1120,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -1137,7 +1144,7 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>44</v>
@@ -1156,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF690F-6C63-4D55-8579-ED1DF37A8C7A}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1186,7 @@
     <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>25</v>
@@ -1238,10 +1245,13 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1258,13 +1268,13 @@
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>38</v>
@@ -1279,7 +1289,7 @@
         <v>70</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>72</v>
@@ -1291,19 +1301,20 @@
         <v>38</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2"/>
+      <c r="U2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1320,10 +1331,10 @@
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>60</v>
@@ -1338,7 +1349,7 @@
         <v>67</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>75</v>
@@ -1347,17 +1358,18 @@
         <v>38</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="2"/>
+      <c r="U3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1374,10 +1386,10 @@
         <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>61</v>
@@ -1395,7 +1407,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>73</v>
@@ -1407,19 +1419,20 @@
         <v>38</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2"/>
+      <c r="U4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1436,10 +1449,10 @@
         <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>62</v>
@@ -1451,7 +1464,7 @@
         <v>69</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>77</v>
@@ -1460,13 +1473,14 @@
         <v>38</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2"/>
+      <c r="U5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/inst/extdata/partes_viajeros.xlsx
+++ b/inst/extdata/partes_viajeros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_seg\_trabajo\packages\comunicaXML\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48054A77-E257-4C0F-B1D4-4D6B9327598C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFEAE6E-CFFF-4578-9E78-C09DEA5B0FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunicacion" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>tipo</t>
   </si>
@@ -246,12 +246,6 @@
     <t>Complemento 3</t>
   </si>
   <si>
-    <t>Granada 1</t>
-  </si>
-  <si>
-    <t>Granada 3</t>
-  </si>
-  <si>
     <t>18001</t>
   </si>
   <si>
@@ -280,18 +274,6 @@
   </si>
   <si>
     <t>comunicacion_pk</t>
-  </si>
-  <si>
-    <t>11111</t>
-  </si>
-  <si>
-    <t>22222</t>
-  </si>
-  <si>
-    <t>33333</t>
-  </si>
-  <si>
-    <t>44444</t>
   </si>
   <si>
     <t>1980-01-01</t>
@@ -924,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28C75C2-64F3-4885-A45E-F5092281C300}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
@@ -1010,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1027,10 +1009,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>38</v>
@@ -1109,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1120,10 +1102,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -1144,7 +1126,7 @@
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>44</v>
@@ -1165,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF690F-6C63-4D55-8579-ED1DF37A8C7A}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>25</v>
@@ -1245,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1268,13 +1250,13 @@
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>38</v>
@@ -1289,25 +1271,22 @@
         <v>70</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="1">
@@ -1331,10 +1310,10 @@
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>60</v>
@@ -1349,20 +1328,20 @@
         <v>67</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="1">
@@ -1386,10 +1365,10 @@
         <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>61</v>
@@ -1407,25 +1386,22 @@
         <v>71</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="1">
@@ -1449,10 +1425,10 @@
         <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>62</v>
@@ -1464,20 +1440,20 @@
         <v>69</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="1">
